--- a/ORCL.xlsx
+++ b/ORCL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67E512D-6E99-5D45-BE74-ADF98FD3C429}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3475CAA4-9525-064C-9E7A-A2FEEC1FAE00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-55960" yWindow="-5940" windowWidth="25640" windowHeight="26900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1045,7 +1045,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1076,7 +1076,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="4">
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.02</v>
       </c>
       <c r="I2" s="16"/>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="F5" s="8">
         <f>NPV(F4,E26:DP26)</f>
-        <v>271144.19081399252</v>
+        <v>242428.16416361363</v>
       </c>
       <c r="G5" s="6"/>
       <c r="I5" s="14"/>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="F6" s="10">
         <f>F5+C5</f>
-        <v>238955.19081399252</v>
+        <v>210239.16416361363</v>
       </c>
       <c r="I6" s="14"/>
     </row>
@@ -1183,11 +1183,11 @@
       </c>
       <c r="F7" s="13">
         <f>F6/C3</f>
-        <v>78.448847936307459</v>
+        <v>69.021393356406321</v>
       </c>
       <c r="G7" s="14">
         <f>F7/C2-1</f>
-        <v>0.2634699297198817</v>
+        <v>0.11163461678863462</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
@@ -1453,7 +1453,7 @@
         <v>37727</v>
       </c>
       <c r="C15" s="22">
-        <f t="shared" ref="B15:J15" si="5">SUM(C10:C13)</f>
+        <f t="shared" ref="C15:J15" si="5">SUM(C10:C13)</f>
         <v>39715</v>
       </c>
       <c r="D15" s="22">
@@ -1546,7 +1546,7 @@
         <v>7938</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" ref="E16:F16" si="8">F15-F17</f>
+        <f t="shared" ref="F16" si="8">F15-F17</f>
         <v>7981.0344117948189</v>
       </c>
       <c r="G16" s="5">
@@ -1951,7 +1951,7 @@
         <v>17233</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" ref="E21:F21" si="20">SUM(F18:F20)</f>
+        <f t="shared" ref="F21" si="20">SUM(F18:F20)</f>
         <v>17038.86</v>
       </c>
       <c r="G21" s="5">
@@ -2032,7 +2032,7 @@
         <v>13897</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" ref="E22:F22" si="24">F17-F21</f>
+        <f t="shared" ref="F22" si="24">F17-F21</f>
         <v>14259.905588205176</v>
       </c>
       <c r="G22" s="5">
@@ -2113,7 +2113,7 @@
         <v>-1833</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" ref="E23:T23" si="28">E40*$F$3</f>
+        <f t="shared" ref="F23:T23" si="28">E40*$F$3</f>
         <v>-570.80000000000007</v>
       </c>
       <c r="G23" s="5">
@@ -2194,7 +2194,7 @@
         <v>12064</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" ref="E24:F24" si="29">F22+F23</f>
+        <f t="shared" ref="F24" si="29">F22+F23</f>
         <v>13689.105588205177</v>
       </c>
       <c r="G24" s="5">
@@ -2416,896 +2416,896 @@
         <v>15586.350276156576</v>
       </c>
       <c r="U26" s="22">
-        <f t="shared" ref="S26:AU26" si="48">T26*($F$2+1)</f>
-        <v>15508.418524775792</v>
+        <f t="shared" ref="U26:AU26" si="48">T26*($F$2+1)</f>
+        <v>15274.623270633445</v>
       </c>
       <c r="V26" s="22">
         <f t="shared" si="48"/>
-        <v>15430.876432151914</v>
+        <v>14969.130805220775</v>
       </c>
       <c r="W26" s="22">
         <f t="shared" si="48"/>
-        <v>15353.722049991155</v>
+        <v>14669.748189116359</v>
       </c>
       <c r="X26" s="22">
         <f t="shared" si="48"/>
-        <v>15276.953439741199</v>
+        <v>14376.353225334031</v>
       </c>
       <c r="Y26" s="22">
         <f t="shared" si="48"/>
-        <v>15200.568672542493</v>
+        <v>14088.82616082735</v>
       </c>
       <c r="Z26" s="22">
         <f t="shared" si="48"/>
-        <v>15124.565829179781</v>
+        <v>13807.049637610802</v>
       </c>
       <c r="AA26" s="22">
         <f t="shared" si="48"/>
-        <v>15048.943000033882</v>
+        <v>13530.908644858586</v>
       </c>
       <c r="AB26" s="22">
         <f t="shared" si="48"/>
-        <v>14973.698285033712</v>
+        <v>13260.290471961414</v>
       </c>
       <c r="AC26" s="22">
         <f t="shared" si="48"/>
-        <v>14898.829793608544</v>
+        <v>12995.084662522186</v>
       </c>
       <c r="AD26" s="22">
         <f t="shared" si="48"/>
-        <v>14824.335644640501</v>
+        <v>12735.182969271742</v>
       </c>
       <c r="AE26" s="22">
         <f t="shared" si="48"/>
-        <v>14750.213966417299</v>
+        <v>12480.479309886307</v>
       </c>
       <c r="AF26" s="22">
         <f t="shared" si="48"/>
-        <v>14676.462896585213</v>
+        <v>12230.86972368858</v>
       </c>
       <c r="AG26" s="22">
         <f t="shared" si="48"/>
-        <v>14603.080582102288</v>
+        <v>11986.252329214809</v>
       </c>
       <c r="AH26" s="22">
         <f t="shared" si="48"/>
-        <v>14530.065179191777</v>
+        <v>11746.527282630512</v>
       </c>
       <c r="AI26" s="22">
         <f t="shared" si="48"/>
-        <v>14457.414853295819</v>
+        <v>11511.596736977901</v>
       </c>
       <c r="AJ26" s="22">
         <f t="shared" si="48"/>
-        <v>14385.127779029339</v>
+        <v>11281.364802238342</v>
       </c>
       <c r="AK26" s="22">
         <f t="shared" si="48"/>
-        <v>14313.202140134192</v>
+        <v>11055.737506193575</v>
       </c>
       <c r="AL26" s="22">
         <f t="shared" si="48"/>
-        <v>14241.63612943352</v>
+        <v>10834.622756069703</v>
       </c>
       <c r="AM26" s="22">
         <f t="shared" si="48"/>
-        <v>14170.427948786353</v>
+        <v>10617.930300948308</v>
       </c>
       <c r="AN26" s="22">
         <f t="shared" si="48"/>
-        <v>14099.575809042421</v>
+        <v>10405.571694929342</v>
       </c>
       <c r="AO26" s="22">
         <f t="shared" si="48"/>
-        <v>14029.077929997209</v>
+        <v>10197.460261030756</v>
       </c>
       <c r="AP26" s="22">
         <f t="shared" si="48"/>
-        <v>13958.932540347223</v>
+        <v>9993.5110558101405</v>
       </c>
       <c r="AQ26" s="22">
         <f t="shared" si="48"/>
-        <v>13889.137877645488</v>
+        <v>9793.640834693937</v>
       </c>
       <c r="AR26" s="22">
         <f t="shared" si="48"/>
-        <v>13819.692188257261</v>
+        <v>9597.7680180000589</v>
       </c>
       <c r="AS26" s="22">
         <f t="shared" si="48"/>
-        <v>13750.593727315974</v>
+        <v>9405.8126576400573</v>
       </c>
       <c r="AT26" s="22">
         <f t="shared" si="48"/>
-        <v>13681.840758679395</v>
+        <v>9217.6964044872566</v>
       </c>
       <c r="AU26" s="22">
         <f t="shared" si="48"/>
-        <v>13613.431554885998</v>
+        <v>9033.3424763975108</v>
       </c>
       <c r="AV26" s="22">
         <f t="shared" ref="AV26:CA26" si="49">AU26*($F$2+1)</f>
-        <v>13545.364397111567</v>
+        <v>8852.6756268695608</v>
       </c>
       <c r="AW26" s="22">
         <f t="shared" si="49"/>
-        <v>13477.637575126009</v>
+        <v>8675.6221143321691</v>
       </c>
       <c r="AX26" s="22">
         <f t="shared" si="49"/>
-        <v>13410.24938725038</v>
+        <v>8502.1096720455262</v>
       </c>
       <c r="AY26" s="22">
         <f t="shared" si="49"/>
-        <v>13343.198140314129</v>
+        <v>8332.0674786046147</v>
       </c>
       <c r="AZ26" s="22">
         <f t="shared" si="49"/>
-        <v>13276.482149612559</v>
+        <v>8165.4261290325221</v>
       </c>
       <c r="BA26" s="22">
         <f t="shared" si="49"/>
-        <v>13210.099738864496</v>
+        <v>8002.1176064518713</v>
       </c>
       <c r="BB26" s="22">
         <f t="shared" si="49"/>
-        <v>13144.049240170172</v>
+        <v>7842.0752543228336</v>
       </c>
       <c r="BC26" s="22">
         <f t="shared" si="49"/>
-        <v>13078.32899396932</v>
+        <v>7685.2337492363768</v>
       </c>
       <c r="BD26" s="22">
         <f t="shared" si="49"/>
-        <v>13012.937348999474</v>
+        <v>7531.529074251649</v>
       </c>
       <c r="BE26" s="22">
         <f t="shared" si="49"/>
-        <v>12947.872662254476</v>
+        <v>7380.8984927666161</v>
       </c>
       <c r="BF26" s="22">
         <f t="shared" si="49"/>
-        <v>12883.133298943203</v>
+        <v>7233.2805229112837</v>
       </c>
       <c r="BG26" s="22">
         <f t="shared" si="49"/>
-        <v>12818.717632448486</v>
+        <v>7088.6149124530575</v>
       </c>
       <c r="BH26" s="22">
         <f t="shared" si="49"/>
-        <v>12754.624044286244</v>
+        <v>6946.8426142039962</v>
       </c>
       <c r="BI26" s="22">
         <f t="shared" si="49"/>
-        <v>12690.850924064813</v>
+        <v>6807.9057619199157</v>
       </c>
       <c r="BJ26" s="22">
         <f t="shared" si="49"/>
-        <v>12627.396669444488</v>
+        <v>6671.7476466815169</v>
       </c>
       <c r="BK26" s="22">
         <f t="shared" si="49"/>
-        <v>12564.259686097266</v>
+        <v>6538.3126937478864</v>
       </c>
       <c r="BL26" s="22">
         <f t="shared" si="49"/>
-        <v>12501.43838766678</v>
+        <v>6407.5464398729282</v>
       </c>
       <c r="BM26" s="22">
         <f t="shared" si="49"/>
-        <v>12438.931195728446</v>
+        <v>6279.3955110754696</v>
       </c>
       <c r="BN26" s="22">
         <f t="shared" si="49"/>
-        <v>12376.736539749803</v>
+        <v>6153.8076008539601</v>
       </c>
       <c r="BO26" s="22">
         <f t="shared" si="49"/>
-        <v>12314.852857051053</v>
+        <v>6030.7314488368811</v>
       </c>
       <c r="BP26" s="22">
         <f t="shared" si="49"/>
-        <v>12253.278592765799</v>
+        <v>5910.1168198601436</v>
       </c>
       <c r="BQ26" s="22">
         <f t="shared" si="49"/>
-        <v>12192.012199801969</v>
+        <v>5791.9144834629406</v>
       </c>
       <c r="BR26" s="22">
         <f t="shared" si="49"/>
-        <v>12131.052138802959</v>
+        <v>5676.0761937936813</v>
       </c>
       <c r="BS26" s="22">
         <f t="shared" si="49"/>
-        <v>12070.396878108944</v>
+        <v>5562.5546699178076</v>
       </c>
       <c r="BT26" s="22">
         <f t="shared" si="49"/>
-        <v>12010.044893718399</v>
+        <v>5451.3035765194518</v>
       </c>
       <c r="BU26" s="22">
         <f t="shared" si="49"/>
-        <v>11949.994669249807</v>
+        <v>5342.2775049890624</v>
       </c>
       <c r="BV26" s="22">
         <f t="shared" si="49"/>
-        <v>11890.244695903559</v>
+        <v>5235.4319548892809</v>
       </c>
       <c r="BW26" s="22">
         <f t="shared" si="49"/>
-        <v>11830.79347242404</v>
+        <v>5130.7233157914952</v>
       </c>
       <c r="BX26" s="22">
         <f t="shared" si="49"/>
-        <v>11771.639505061919</v>
+        <v>5028.108849475665</v>
       </c>
       <c r="BY26" s="22">
         <f t="shared" si="49"/>
-        <v>11712.78130753661</v>
+        <v>4927.5466724861517</v>
       </c>
       <c r="BZ26" s="22">
         <f t="shared" si="49"/>
-        <v>11654.217400998927</v>
+        <v>4828.9957390364289</v>
       </c>
       <c r="CA26" s="22">
         <f t="shared" si="49"/>
-        <v>11595.946313993933</v>
+        <v>4732.4158242557005</v>
       </c>
       <c r="CB26" s="22">
         <f t="shared" ref="CB26:DG26" si="50">CA26*($F$2+1)</f>
-        <v>11537.966582423964</v>
+        <v>4637.7675077705862</v>
       </c>
       <c r="CC26" s="22">
         <f t="shared" si="50"/>
-        <v>11480.276749511844</v>
+        <v>4545.0121576151741</v>
       </c>
       <c r="CD26" s="22">
         <f t="shared" si="50"/>
-        <v>11422.875365764285</v>
+        <v>4454.111914462871</v>
       </c>
       <c r="CE26" s="22">
         <f t="shared" si="50"/>
-        <v>11365.760988935463</v>
+        <v>4365.0296761736136</v>
       </c>
       <c r="CF26" s="22">
         <f t="shared" si="50"/>
-        <v>11308.932183990784</v>
+        <v>4277.7290826501412</v>
       </c>
       <c r="CG26" s="22">
         <f t="shared" si="50"/>
-        <v>11252.387523070831</v>
+        <v>4192.1745009971382</v>
       </c>
       <c r="CH26" s="22">
         <f t="shared" si="50"/>
-        <v>11196.125585455477</v>
+        <v>4108.3310109771955</v>
       </c>
       <c r="CI26" s="22">
         <f t="shared" si="50"/>
-        <v>11140.144957528199</v>
+        <v>4026.1643907576517</v>
       </c>
       <c r="CJ26" s="22">
         <f t="shared" si="50"/>
-        <v>11084.444232740558</v>
+        <v>3945.6411029424985</v>
       </c>
       <c r="CK26" s="22">
         <f t="shared" si="50"/>
-        <v>11029.022011576855</v>
+        <v>3866.7282808836485</v>
       </c>
       <c r="CL26" s="22">
         <f t="shared" si="50"/>
-        <v>10973.87690151897</v>
+        <v>3789.3937152659755</v>
       </c>
       <c r="CM26" s="22">
         <f t="shared" si="50"/>
-        <v>10919.007517011376</v>
+        <v>3713.6058409606558</v>
       </c>
       <c r="CN26" s="22">
         <f t="shared" si="50"/>
-        <v>10864.412479426319</v>
+        <v>3639.3337241414424</v>
       </c>
       <c r="CO26" s="22">
         <f t="shared" si="50"/>
-        <v>10810.090417029187</v>
+        <v>3566.5470496586136</v>
       </c>
       <c r="CP26" s="22">
         <f t="shared" si="50"/>
-        <v>10756.039964944041</v>
+        <v>3495.2161086654414</v>
       </c>
       <c r="CQ26" s="22">
         <f t="shared" si="50"/>
-        <v>10702.259765119321</v>
+        <v>3425.3117864921323</v>
       </c>
       <c r="CR26" s="22">
         <f t="shared" si="50"/>
-        <v>10648.748466293724</v>
+        <v>3356.8055507622898</v>
       </c>
       <c r="CS26" s="22">
         <f t="shared" si="50"/>
-        <v>10595.504723962255</v>
+        <v>3289.6694397470442</v>
       </c>
       <c r="CT26" s="22">
         <f t="shared" si="50"/>
-        <v>10542.527200342443</v>
+        <v>3223.876050952103</v>
       </c>
       <c r="CU26" s="22">
         <f t="shared" si="50"/>
-        <v>10489.814564340732</v>
+        <v>3159.3985299330607</v>
       </c>
       <c r="CV26" s="22">
         <f t="shared" si="50"/>
-        <v>10437.365491519027</v>
+        <v>3096.2105593343995</v>
       </c>
       <c r="CW26" s="22">
         <f t="shared" si="50"/>
-        <v>10385.178664061432</v>
+        <v>3034.2863481477116</v>
       </c>
       <c r="CX26" s="22">
         <f t="shared" si="50"/>
-        <v>10333.252770741125</v>
+        <v>2973.6006211847571</v>
       </c>
       <c r="CY26" s="22">
         <f t="shared" si="50"/>
-        <v>10281.586506887419</v>
+        <v>2914.128608761062</v>
       </c>
       <c r="CZ26" s="22">
         <f t="shared" si="50"/>
-        <v>10230.178574352982</v>
+        <v>2855.8460365858405</v>
       </c>
       <c r="DA26" s="22">
         <f t="shared" si="50"/>
-        <v>10179.027681481217</v>
+        <v>2798.7291158541234</v>
       </c>
       <c r="DB26" s="22">
         <f t="shared" si="50"/>
-        <v>10128.132543073811</v>
+        <v>2742.754533537041</v>
       </c>
       <c r="DC26" s="22">
         <f t="shared" si="50"/>
-        <v>10077.491880358442</v>
+        <v>2687.8994428663</v>
       </c>
       <c r="DD26" s="22">
         <f t="shared" si="50"/>
-        <v>10027.10442095665</v>
+        <v>2634.1414540089741</v>
       </c>
       <c r="DE26" s="22">
         <f t="shared" si="50"/>
-        <v>9976.9688988518665</v>
+        <v>2581.4586249287945</v>
       </c>
       <c r="DF26" s="22">
         <f t="shared" si="50"/>
-        <v>9927.0840543576069</v>
+        <v>2529.8294524302187</v>
       </c>
       <c r="DG26" s="22">
         <f t="shared" si="50"/>
-        <v>9877.4486340858184</v>
+        <v>2479.2328633816142</v>
       </c>
       <c r="DH26" s="22">
         <f t="shared" ref="DH26:DP26" si="51">DG26*($F$2+1)</f>
-        <v>9828.061390915389</v>
+        <v>2429.6482061139818</v>
       </c>
       <c r="DI26" s="22">
         <f t="shared" si="51"/>
-        <v>9778.9210839608113</v>
+        <v>2381.0552419917021</v>
       </c>
       <c r="DJ26" s="22">
         <f t="shared" si="51"/>
-        <v>9730.0264785410072</v>
+        <v>2333.4341371518681</v>
       </c>
       <c r="DK26" s="22">
         <f t="shared" si="51"/>
-        <v>9681.3763461483013</v>
+        <v>2286.7654544088305</v>
       </c>
       <c r="DL26" s="22">
         <f t="shared" si="51"/>
-        <v>9632.9694644175597</v>
+        <v>2241.0301453206539</v>
       </c>
       <c r="DM26" s="22">
         <f t="shared" si="51"/>
-        <v>9584.8046170954713</v>
+        <v>2196.2095424142408</v>
       </c>
       <c r="DN26" s="22">
         <f t="shared" si="51"/>
-        <v>9536.8805940099937</v>
+        <v>2152.2853515659558</v>
       </c>
       <c r="DO26" s="22">
         <f t="shared" si="51"/>
-        <v>9489.1961910399441</v>
+        <v>2109.2396445346367</v>
       </c>
       <c r="DP26" s="22">
         <f t="shared" si="51"/>
-        <v>9441.750210084745</v>
+        <v>2067.0548516439439</v>
       </c>
       <c r="DQ26" s="22">
         <f t="shared" ref="DQ26" si="52">DP26*($F$2+1)</f>
-        <v>9394.5414590343207</v>
+        <v>2025.713754611065</v>
       </c>
       <c r="DR26" s="22">
         <f t="shared" ref="DR26" si="53">DQ26*($F$2+1)</f>
-        <v>9347.5687517391489</v>
+        <v>1985.1994795188436</v>
       </c>
       <c r="DS26" s="22">
         <f t="shared" ref="DS26" si="54">DR26*($F$2+1)</f>
-        <v>9300.830907980453</v>
+        <v>1945.4954899284667</v>
       </c>
       <c r="DT26" s="22">
         <f t="shared" ref="DT26" si="55">DS26*($F$2+1)</f>
-        <v>9254.3267534405513</v>
+        <v>1906.5855801298974</v>
       </c>
       <c r="DU26" s="22">
         <f t="shared" ref="DU26" si="56">DT26*($F$2+1)</f>
-        <v>9208.0551196733486</v>
+        <v>1868.4538685272994</v>
       </c>
       <c r="DV26" s="22">
         <f t="shared" ref="DV26" si="57">DU26*($F$2+1)</f>
-        <v>9162.0148440749817</v>
+        <v>1831.0847911567535</v>
       </c>
       <c r="DW26" s="22">
         <f t="shared" ref="DW26" si="58">DV26*($F$2+1)</f>
-        <v>9116.2047698546066</v>
+        <v>1794.4630953336184</v>
       </c>
       <c r="DX26" s="22">
         <f t="shared" ref="DX26" si="59">DW26*($F$2+1)</f>
-        <v>9070.6237460053344</v>
+        <v>1758.5738334269461</v>
       </c>
       <c r="DY26" s="22">
         <f t="shared" ref="DY26" si="60">DX26*($F$2+1)</f>
-        <v>9025.2706272753076</v>
+        <v>1723.4023567584072</v>
       </c>
       <c r="DZ26" s="22">
         <f t="shared" ref="DZ26" si="61">DY26*($F$2+1)</f>
-        <v>8980.144274138931</v>
+        <v>1688.934309623239</v>
       </c>
       <c r="EA26" s="22">
         <f t="shared" ref="EA26" si="62">DZ26*($F$2+1)</f>
-        <v>8935.2435527682355</v>
+        <v>1655.1556234307741</v>
       </c>
       <c r="EB26" s="22">
         <f t="shared" ref="EB26" si="63">EA26*($F$2+1)</f>
-        <v>8890.5673350043944</v>
+        <v>1622.0525109621585</v>
       </c>
       <c r="EC26" s="22">
         <f t="shared" ref="EC26" si="64">EB26*($F$2+1)</f>
-        <v>8846.1144983293725</v>
+        <v>1589.6114607429154</v>
       </c>
       <c r="ED26" s="22">
         <f t="shared" ref="ED26" si="65">EC26*($F$2+1)</f>
-        <v>8801.8839258377247</v>
+        <v>1557.8192315280571</v>
       </c>
       <c r="EE26" s="22">
         <f t="shared" ref="EE26" si="66">ED26*($F$2+1)</f>
-        <v>8757.8745062085363</v>
+        <v>1526.6628468974959</v>
       </c>
       <c r="EF26" s="22">
         <f t="shared" ref="EF26" si="67">EE26*($F$2+1)</f>
-        <v>8714.085133677494</v>
+        <v>1496.1295899595459</v>
       </c>
       <c r="EG26" s="22">
         <f t="shared" ref="EG26" si="68">EF26*($F$2+1)</f>
-        <v>8670.5147080091065</v>
+        <v>1466.2069981603549</v>
       </c>
       <c r="EH26" s="22">
         <f t="shared" ref="EH26" si="69">EG26*($F$2+1)</f>
-        <v>8627.1621344690611</v>
+        <v>1436.8828581971479</v>
       </c>
       <c r="EI26" s="22">
         <f t="shared" ref="EI26" si="70">EH26*($F$2+1)</f>
-        <v>8584.0263237967156</v>
+        <v>1408.145201033205</v>
       </c>
       <c r="EJ26" s="22">
         <f t="shared" ref="EJ26" si="71">EI26*($F$2+1)</f>
-        <v>8541.1061921777327</v>
+        <v>1379.9822970125408</v>
       </c>
       <c r="EK26" s="22">
         <f t="shared" ref="EK26" si="72">EJ26*($F$2+1)</f>
-        <v>8498.4006612168432</v>
+        <v>1352.3826510722899</v>
       </c>
       <c r="EL26" s="22">
         <f t="shared" ref="EL26" si="73">EK26*($F$2+1)</f>
-        <v>8455.9086579107588</v>
+        <v>1325.3349980508442</v>
       </c>
       <c r="EM26" s="22">
         <f t="shared" ref="EM26" si="74">EL26*($F$2+1)</f>
-        <v>8413.6291146212043</v>
+        <v>1298.8282980898273</v>
       </c>
       <c r="EN26" s="22">
         <f t="shared" ref="EN26" si="75">EM26*($F$2+1)</f>
-        <v>8371.5609690480978</v>
+        <v>1272.8517321280308</v>
       </c>
       <c r="EO26" s="22">
         <f t="shared" ref="EO26" si="76">EN26*($F$2+1)</f>
-        <v>8329.7031642028578</v>
+        <v>1247.3946974854703</v>
       </c>
       <c r="EP26" s="22">
         <f t="shared" ref="EP26" si="77">EO26*($F$2+1)</f>
-        <v>8288.0546483818434</v>
+        <v>1222.4468035357609</v>
       </c>
       <c r="EQ26" s="22">
         <f t="shared" ref="EQ26" si="78">EP26*($F$2+1)</f>
-        <v>8246.6143751399341</v>
+        <v>1197.9978674650456</v>
       </c>
       <c r="ER26" s="22">
         <f t="shared" ref="ER26" si="79">EQ26*($F$2+1)</f>
-        <v>8205.3813032642338</v>
+        <v>1174.0379101157446</v>
       </c>
       <c r="ES26" s="22">
         <f t="shared" ref="ES26" si="80">ER26*($F$2+1)</f>
-        <v>8164.3543967479127</v>
+        <v>1150.5571519134296</v>
       </c>
       <c r="ET26" s="22">
         <f t="shared" ref="ET26" si="81">ES26*($F$2+1)</f>
-        <v>8123.5326247641733</v>
+        <v>1127.5460088751611</v>
       </c>
       <c r="EU26" s="22">
         <f t="shared" ref="EU26" si="82">ET26*($F$2+1)</f>
-        <v>8082.914961640352</v>
+        <v>1104.9950886976578</v>
       </c>
       <c r="EV26" s="22">
         <f t="shared" ref="EV26" si="83">EU26*($F$2+1)</f>
-        <v>8042.5003868321501</v>
+        <v>1082.8951869237046</v>
       </c>
       <c r="EW26" s="22">
         <f t="shared" ref="EW26" si="84">EV26*($F$2+1)</f>
-        <v>8002.287884897989</v>
+        <v>1061.2372831852306</v>
       </c>
       <c r="EX26" s="22">
         <f t="shared" ref="EX26" si="85">EW26*($F$2+1)</f>
-        <v>7962.2764454734988</v>
+        <v>1040.0125375215259</v>
       </c>
       <c r="EY26" s="22">
         <f t="shared" ref="EY26" si="86">EX26*($F$2+1)</f>
-        <v>7922.4650632461316</v>
+        <v>1019.2122867710954</v>
       </c>
       <c r="EZ26" s="22">
         <f t="shared" ref="EZ26" si="87">EY26*($F$2+1)</f>
-        <v>7882.8527379299012</v>
+        <v>998.82804103567344</v>
       </c>
       <c r="FA26" s="22">
         <f t="shared" ref="FA26" si="88">EZ26*($F$2+1)</f>
-        <v>7843.4384742402517</v>
+        <v>978.85148021495991</v>
       </c>
       <c r="FB26" s="22">
         <f t="shared" ref="FB26" si="89">FA26*($F$2+1)</f>
-        <v>7804.2212818690505</v>
+        <v>959.27445061066067</v>
       </c>
       <c r="FC26" s="22">
         <f t="shared" ref="FC26" si="90">FB26*($F$2+1)</f>
-        <v>7765.200175459705</v>
+        <v>940.08896159844744</v>
       </c>
       <c r="FD26" s="22">
         <f t="shared" ref="FD26" si="91">FC26*($F$2+1)</f>
-        <v>7726.3741745824063</v>
+        <v>921.28718236647842</v>
       </c>
       <c r="FE26" s="22">
         <f t="shared" ref="FE26" si="92">FD26*($F$2+1)</f>
-        <v>7687.7423037094941</v>
+        <v>902.86143871914885</v>
       </c>
       <c r="FF26" s="22">
         <f t="shared" ref="FF26" si="93">FE26*($F$2+1)</f>
-        <v>7649.3035921909468</v>
+        <v>884.80420994476583</v>
       </c>
       <c r="FG26" s="22">
         <f t="shared" ref="FG26" si="94">FF26*($F$2+1)</f>
-        <v>7611.0570742299924</v>
+        <v>867.10812574587055</v>
       </c>
       <c r="FH26" s="22">
         <f t="shared" ref="FH26" si="95">FG26*($F$2+1)</f>
-        <v>7573.0017888588427</v>
+        <v>849.76596323095316</v>
       </c>
       <c r="FI26" s="22">
         <f t="shared" ref="FI26" si="96">FH26*($F$2+1)</f>
-        <v>7535.1367799145482</v>
+        <v>832.77064396633409</v>
       </c>
       <c r="FJ26" s="22">
         <f t="shared" ref="FJ26" si="97">FI26*($F$2+1)</f>
-        <v>7497.4610960149757</v>
+        <v>816.11523108700737</v>
       </c>
       <c r="FK26" s="22">
         <f t="shared" ref="FK26" si="98">FJ26*($F$2+1)</f>
-        <v>7459.9737905349011</v>
+        <v>799.79292646526721</v>
       </c>
       <c r="FL26" s="22">
         <f t="shared" ref="FL26" si="99">FK26*($F$2+1)</f>
-        <v>7422.6739215822263</v>
+        <v>783.79706793596188</v>
       </c>
       <c r="FM26" s="22">
         <f t="shared" ref="FM26" si="100">FL26*($F$2+1)</f>
-        <v>7385.5605519743149</v>
+        <v>768.12112657724265</v>
       </c>
       <c r="FN26" s="22">
         <f t="shared" ref="FN26" si="101">FM26*($F$2+1)</f>
-        <v>7348.6327492144437</v>
+        <v>752.75870404569775</v>
       </c>
       <c r="FO26" s="22">
         <f t="shared" ref="FO26" si="102">FN26*($F$2+1)</f>
-        <v>7311.8895854683715</v>
+        <v>737.7035299647838</v>
       </c>
       <c r="FP26" s="22">
         <f t="shared" ref="FP26" si="103">FO26*($F$2+1)</f>
-        <v>7275.3301375410292</v>
+        <v>722.94945936548811</v>
       </c>
       <c r="FQ26" s="22">
         <f t="shared" ref="FQ26" si="104">FP26*($F$2+1)</f>
-        <v>7238.9534868533237</v>
+        <v>708.49047017817838</v>
       </c>
       <c r="FR26" s="22">
         <f t="shared" ref="FR26" si="105">FQ26*($F$2+1)</f>
-        <v>7202.7587194190573</v>
+        <v>694.32066077461479</v>
       </c>
       <c r="FS26" s="22">
         <f t="shared" ref="FS26" si="106">FR26*($F$2+1)</f>
-        <v>7166.7449258219622</v>
+        <v>680.43424755912247</v>
       </c>
       <c r="FT26" s="22">
         <f t="shared" ref="FT26" si="107">FS26*($F$2+1)</f>
-        <v>7130.9112011928519</v>
+        <v>666.82556260794001</v>
       </c>
       <c r="FU26" s="22">
         <f t="shared" ref="FU26" si="108">FT26*($F$2+1)</f>
-        <v>7095.2566451868879</v>
+        <v>653.48905135578116</v>
       </c>
       <c r="FV26" s="22">
         <f t="shared" ref="FV26" si="109">FU26*($F$2+1)</f>
-        <v>7059.7803619609531</v>
+        <v>640.41927032866556</v>
       </c>
       <c r="FW26" s="22">
         <f t="shared" ref="FW26" si="110">FV26*($F$2+1)</f>
-        <v>7024.481460151148</v>
+        <v>627.61088492209228</v>
       </c>
       <c r="FX26" s="22">
         <f t="shared" ref="FX26" si="111">FW26*($F$2+1)</f>
-        <v>6989.3590528503919</v>
+        <v>615.05866722365045</v>
       </c>
       <c r="FY26" s="22">
         <f t="shared" ref="FY26" si="112">FX26*($F$2+1)</f>
-        <v>6954.4122575861402</v>
+        <v>602.75749387917745</v>
       </c>
       <c r="FZ26" s="22">
         <f t="shared" ref="FZ26" si="113">FY26*($F$2+1)</f>
-        <v>6919.640196298209</v>
+        <v>590.70234400159393</v>
       </c>
       <c r="GA26" s="22">
         <f t="shared" ref="GA26" si="114">FZ26*($F$2+1)</f>
-        <v>6885.0419953167184</v>
+        <v>578.888297121562</v>
       </c>
       <c r="GB26" s="22">
         <f t="shared" ref="GB26" si="115">GA26*($F$2+1)</f>
-        <v>6850.6167853401348</v>
+        <v>567.31053117913075</v>
       </c>
       <c r="GC26" s="22">
         <f t="shared" ref="GC26" si="116">GB26*($F$2+1)</f>
-        <v>6816.3637014134338</v>
+        <v>555.96432055554817</v>
       </c>
       <c r="GD26" s="22">
         <f t="shared" ref="GD26" si="117">GC26*($F$2+1)</f>
-        <v>6782.2818829063663</v>
+        <v>544.84503414443725</v>
       </c>
       <c r="GE26" s="22">
         <f t="shared" ref="GE26" si="118">GD26*($F$2+1)</f>
-        <v>6748.3704734918347</v>
+        <v>533.94813346154854</v>
       </c>
       <c r="GF26" s="22">
         <f t="shared" ref="GF26" si="119">GE26*($F$2+1)</f>
-        <v>6714.6286211243751</v>
+        <v>523.2691707923176</v>
       </c>
       <c r="GG26" s="22">
         <f t="shared" ref="GG26" si="120">GF26*($F$2+1)</f>
-        <v>6681.0554780187531</v>
+        <v>512.80378737647118</v>
       </c>
       <c r="GH26" s="22">
         <f t="shared" ref="GH26" si="121">GG26*($F$2+1)</f>
-        <v>6647.6502006286591</v>
+        <v>502.54771162894173</v>
       </c>
       <c r="GI26" s="22">
         <f t="shared" ref="GI26" si="122">GH26*($F$2+1)</f>
-        <v>6614.4119496255162</v>
+        <v>492.49675739636291</v>
       </c>
       <c r="GJ26" s="22">
         <f t="shared" ref="GJ26" si="123">GI26*($F$2+1)</f>
-        <v>6581.3398898773885</v>
+        <v>482.64682224843563</v>
       </c>
       <c r="GK26" s="22">
         <f t="shared" ref="GK26" si="124">GJ26*($F$2+1)</f>
-        <v>6548.4331904280016</v>
+        <v>472.99388580346692</v>
       </c>
       <c r="GL26" s="22">
         <f t="shared" ref="GL26" si="125">GK26*($F$2+1)</f>
-        <v>6515.6910244758619</v>
+        <v>463.53400808739758</v>
       </c>
       <c r="GM26" s="22">
         <f t="shared" ref="GM26" si="126">GL26*($F$2+1)</f>
-        <v>6483.1125693534823</v>
+        <v>454.26332792564961</v>
       </c>
       <c r="GN26" s="22">
         <f t="shared" ref="GN26" si="127">GM26*($F$2+1)</f>
-        <v>6450.6970065067153</v>
+        <v>445.17806136713659</v>
       </c>
       <c r="GO26" s="22">
         <f t="shared" ref="GO26" si="128">GN26*($F$2+1)</f>
-        <v>6418.4435214741816</v>
+        <v>436.27450013979387</v>
       </c>
       <c r="GP26" s="22">
         <f t="shared" ref="GP26" si="129">GO26*($F$2+1)</f>
-        <v>6386.3513038668107</v>
+        <v>427.54901013699799</v>
       </c>
       <c r="GQ26" s="22">
         <f t="shared" ref="GQ26" si="130">GP26*($F$2+1)</f>
-        <v>6354.4195473474765</v>
+        <v>418.998029934258</v>
       </c>
       <c r="GR26" s="22">
         <f t="shared" ref="GR26" si="131">GQ26*($F$2+1)</f>
-        <v>6322.6474496107394</v>
+        <v>410.61806933557284</v>
       </c>
       <c r="GS26" s="22">
         <f t="shared" ref="GS26" si="132">GR26*($F$2+1)</f>
-        <v>6291.034212362686</v>
+        <v>402.40570794886139</v>
       </c>
       <c r="GT26" s="22">
         <f t="shared" ref="GT26" si="133">GS26*($F$2+1)</f>
-        <v>6259.5790413008726</v>
+        <v>394.35759378988416</v>
       </c>
       <c r="GU26" s="22">
         <f t="shared" ref="GU26" si="134">GT26*($F$2+1)</f>
-        <v>6228.2811460943685</v>
+        <v>386.47044191408645</v>
       </c>
       <c r="GV26" s="22">
         <f t="shared" ref="GV26" si="135">GU26*($F$2+1)</f>
-        <v>6197.1397403638966</v>
+        <v>378.74103307580469</v>
       </c>
       <c r="GW26" s="22">
         <f t="shared" ref="GW26" si="136">GV26*($F$2+1)</f>
-        <v>6166.1540416620774</v>
+        <v>371.16621241428857</v>
       </c>
       <c r="GX26" s="22">
         <f t="shared" ref="GX26" si="137">GW26*($F$2+1)</f>
-        <v>6135.3232714537671</v>
+        <v>363.74288816600279</v>
       </c>
       <c r="GY26" s="22">
         <f t="shared" ref="GY26" si="138">GX26*($F$2+1)</f>
-        <v>6104.6466550964979</v>
+        <v>356.4680304026827</v>
       </c>
       <c r="GZ26" s="22">
         <f t="shared" ref="GZ26" si="139">GY26*($F$2+1)</f>
-        <v>6074.1234218210157</v>
+        <v>349.33866979462903</v>
       </c>
       <c r="HA26" s="22">
         <f t="shared" ref="HA26" si="140">GZ26*($F$2+1)</f>
-        <v>6043.7528047119104</v>
+        <v>342.35189639873641</v>
       </c>
       <c r="HB26" s="22">
         <f t="shared" ref="HB26" si="141">HA26*($F$2+1)</f>
-        <v>6013.5340406883506</v>
+        <v>335.50485847076169</v>
       </c>
       <c r="HC26" s="22">
         <f t="shared" ref="HC26" si="142">HB26*($F$2+1)</f>
-        <v>5983.466370484909</v>
+        <v>328.79476130134645</v>
       </c>
       <c r="HD26" s="22">
         <f t="shared" ref="HD26" si="143">HC26*($F$2+1)</f>
-        <v>5953.5490386324846</v>
+        <v>322.21886607531951</v>
       </c>
       <c r="HE26" s="22">
         <f t="shared" ref="HE26" si="144">HD26*($F$2+1)</f>
-        <v>5923.7812934393223</v>
+        <v>315.7744887538131</v>
       </c>
       <c r="HF26" s="22">
         <f t="shared" ref="HF26" si="145">HE26*($F$2+1)</f>
-        <v>5894.1623869721261</v>
+        <v>309.45899897873682</v>
       </c>
       <c r="HG26" s="22">
         <f t="shared" ref="HG26" si="146">HF26*($F$2+1)</f>
-        <v>5864.6915750372655</v>
+        <v>303.26981899916206</v>
       </c>
       <c r="HH26" s="22">
         <f t="shared" ref="HH26" si="147">HG26*($F$2+1)</f>
-        <v>5835.3681171620792</v>
+        <v>297.20442261917879</v>
       </c>
       <c r="HI26" s="22">
         <f t="shared" ref="HI26" si="148">HH26*($F$2+1)</f>
-        <v>5806.191276576269</v>
+        <v>291.26033416679519</v>
       </c>
       <c r="HJ26" s="22">
         <f t="shared" ref="HJ26" si="149">HI26*($F$2+1)</f>
-        <v>5777.1603201933876</v>
+        <v>285.43512748345927</v>
       </c>
       <c r="HK26" s="22">
         <f t="shared" ref="HK26" si="150">HJ26*($F$2+1)</f>
-        <v>5748.2745185924205</v>
+        <v>279.7264249337901</v>
       </c>
       <c r="HL26" s="22">
         <f t="shared" ref="HL26" si="151">HK26*($F$2+1)</f>
-        <v>5719.5331459994586</v>
+        <v>274.1318964351143</v>
       </c>
       <c r="HM26" s="22">
         <f t="shared" ref="HM26" si="152">HL26*($F$2+1)</f>
-        <v>5690.9354802694616</v>
+        <v>268.64925850641202</v>
       </c>
       <c r="HN26" s="22">
         <f t="shared" ref="HN26" si="153">HM26*($F$2+1)</f>
-        <v>5662.4808028681146</v>
+        <v>263.27627333628379</v>
       </c>
       <c r="HO26" s="22">
         <f t="shared" ref="HO26" si="154">HN26*($F$2+1)</f>
-        <v>5634.1683988537743</v>
+        <v>258.01074786955809</v>
       </c>
       <c r="HP26" s="22">
         <f t="shared" ref="HP26" si="155">HO26*($F$2+1)</f>
-        <v>5605.9975568595055</v>
+        <v>252.85053291216693</v>
       </c>
       <c r="HQ26" s="22">
         <f t="shared" ref="HQ26" si="156">HP26*($F$2+1)</f>
-        <v>5577.9675690752083</v>
+        <v>247.79352225392358</v>
       </c>
       <c r="HR26" s="22">
         <f t="shared" ref="HR26" si="157">HQ26*($F$2+1)</f>
-        <v>5550.0777312298324</v>
+        <v>242.8376518088451</v>
       </c>
       <c r="HS26" s="22">
         <f t="shared" ref="HS26" si="158">HR26*($F$2+1)</f>
-        <v>5522.3273425736834</v>
+        <v>237.98089877266818</v>
       </c>
       <c r="HT26" s="22">
         <f t="shared" ref="HT26" si="159">HS26*($F$2+1)</f>
-        <v>5494.7157058608145</v>
+        <v>233.2212807972148</v>
       </c>
       <c r="HU26" s="22">
         <f t="shared" ref="HU26" si="160">HT26*($F$2+1)</f>
-        <v>5467.2421273315103</v>
+        <v>228.55685518127049</v>
       </c>
       <c r="HV26" s="22">
         <f t="shared" ref="HV26" si="161">HU26*($F$2+1)</f>
-        <v>5439.9059166948527</v>
+        <v>223.98571807764509</v>
       </c>
       <c r="HW26" s="22">
         <f t="shared" ref="HW26" si="162">HV26*($F$2+1)</f>
-        <v>5412.7063871113787</v>
+        <v>219.50600371609218</v>
       </c>
       <c r="HX26" s="22">
         <f t="shared" ref="HX26" si="163">HW26*($F$2+1)</f>
-        <v>5385.6428551758218</v>
+        <v>215.11588364177032</v>
       </c>
       <c r="HY26" s="22">
         <f t="shared" ref="HY26" si="164">HX26*($F$2+1)</f>
-        <v>5358.7146408999424</v>
+        <v>210.81356596893491</v>
       </c>
       <c r="HZ26" s="22">
         <f t="shared" ref="HZ26" si="165">HY26*($F$2+1)</f>
-        <v>5331.9210676954426</v>
+        <v>206.5972946495562</v>
       </c>
       <c r="IA26" s="22">
         <f t="shared" ref="IA26" si="166">HZ26*($F$2+1)</f>
-        <v>5305.2614623569652</v>
+        <v>202.46534875656508</v>
       </c>
       <c r="IB26" s="22">
         <f t="shared" ref="IB26" si="167">IA26*($F$2+1)</f>
-        <v>5278.7351550451804</v>
+        <v>198.41604178143376</v>
       </c>
       <c r="IC26" s="22">
         <f t="shared" ref="IC26" si="168">IB26*($F$2+1)</f>
-        <v>5252.3414792699541</v>
+        <v>194.44772094580509</v>
       </c>
       <c r="ID26" s="22">
         <f t="shared" ref="ID26" si="169">IC26*($F$2+1)</f>
-        <v>5226.0797718736039</v>
+        <v>190.55876652688897</v>
       </c>
       <c r="IE26" s="22">
         <f t="shared" ref="IE26" si="170">ID26*($F$2+1)</f>
-        <v>5199.9493730142358</v>
+        <v>186.74759119635118</v>
       </c>
       <c r="IF26" s="22">
         <f t="shared" ref="IF26" si="171">IE26*($F$2+1)</f>
-        <v>5173.9496261491649</v>
+        <v>183.01263937242416</v>
       </c>
       <c r="IG26" s="22">
         <f t="shared" ref="IG26" si="172">IF26*($F$2+1)</f>
-        <v>5148.0798780184186</v>
+        <v>179.35238658497568</v>
       </c>
       <c r="IH26" s="22">
         <f t="shared" ref="IH26" si="173">IG26*($F$2+1)</f>
-        <v>5122.3394786283261</v>
+        <v>175.76533885327615</v>
       </c>
       <c r="II26" s="22">
         <f t="shared" ref="II26" si="174">IH26*($F$2+1)</f>
-        <v>5096.727781235184</v>
+        <v>172.25003207621063</v>
       </c>
     </row>
     <row r="27" spans="1:243" x14ac:dyDescent="0.15">
@@ -3329,7 +3329,7 @@
         <v>3.2052498418722326</v>
       </c>
       <c r="F27" s="18">
-        <f t="shared" ref="E27:F27" si="175">F26/F28</f>
+        <f t="shared" ref="F27" si="175">F26/F28</f>
         <v>3.679867093603542</v>
       </c>
       <c r="G27" s="18">
@@ -5605,7 +5605,7 @@
         <v>4384</v>
       </c>
       <c r="O14" s="40">
-        <f t="shared" ref="O14:R14" si="16">SUM(O11:O13)</f>
+        <f t="shared" ref="O14:Q14" si="16">SUM(O11:O13)</f>
         <v>4383</v>
       </c>
       <c r="P14" s="40">
@@ -6589,67 +6589,67 @@
       <c r="D29" s="54"/>
       <c r="E29" s="54"/>
       <c r="F29" s="55">
-        <f>F11/B11-1</f>
+        <f t="shared" ref="F29:U31" si="76">F11/B11-1</f>
         <v>3.4210526315789469E-2</v>
       </c>
       <c r="G29" s="54">
-        <f>G11/C11-1</f>
+        <f t="shared" si="76"/>
         <v>-2.4503311258278093E-2</v>
       </c>
       <c r="H29" s="54">
-        <f>H11/D11-1</f>
+        <f t="shared" si="76"/>
         <v>-1.5121630506245931E-2</v>
       </c>
       <c r="I29" s="56">
-        <f>I11/E11-1</f>
+        <f t="shared" si="76"/>
         <v>-4.0397762585456798E-2</v>
       </c>
       <c r="J29" s="55">
-        <f>J11/F11-1</f>
+        <f t="shared" si="76"/>
         <v>-5.0890585241730735E-3</v>
       </c>
       <c r="K29" s="54">
-        <f>K11/G11-1</f>
+        <f t="shared" si="76"/>
         <v>1.3577732518670338E-3</v>
       </c>
       <c r="L29" s="54">
-        <f>L11/H11-1</f>
+        <f t="shared" si="76"/>
         <v>-4.8064085447263039E-2</v>
       </c>
       <c r="M29" s="54">
-        <f>M11/I11-1</f>
+        <f t="shared" si="76"/>
         <v>1.1658031088082943E-2</v>
       </c>
       <c r="N29" s="55">
-        <f>N11/J11-1</f>
+        <f t="shared" si="76"/>
         <v>-4.4757033248081779E-3</v>
       </c>
       <c r="O29" s="54">
-        <f>O11/K11-1</f>
+        <f t="shared" si="76"/>
         <v>3.7966101694915322E-2</v>
       </c>
       <c r="P29" s="54">
-        <f>P11/L11-1</f>
+        <f t="shared" si="76"/>
         <v>5.1893408134642272E-2</v>
       </c>
       <c r="Q29" s="54">
-        <f>Q11/M11-1</f>
+        <f t="shared" si="76"/>
         <v>-5.3137003841229213E-2</v>
       </c>
       <c r="R29" s="55">
-        <f>R11/N11-1</f>
+        <f t="shared" si="76"/>
         <v>2.0552344251766108E-2</v>
       </c>
       <c r="S29" s="54">
-        <f>S11/O11-1</f>
+        <f t="shared" si="76"/>
         <v>4.5721750489875923E-2</v>
       </c>
       <c r="T29" s="54">
-        <f>T11/P11-1</f>
+        <f t="shared" si="76"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="U29" s="54">
-        <f>U11/Q11-1</f>
+        <f t="shared" si="76"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -6662,67 +6662,67 @@
       <c r="D30" s="54"/>
       <c r="E30" s="54"/>
       <c r="F30" s="55">
-        <f>F12/B12-1</f>
+        <f t="shared" si="76"/>
         <v>3.6477331943720603E-2</v>
       </c>
       <c r="G30" s="54">
-        <f>G12/C12-1</f>
+        <f t="shared" si="76"/>
         <v>6.5306122448979487E-2</v>
       </c>
       <c r="H30" s="54">
-        <f>H12/D12-1</f>
+        <f t="shared" si="76"/>
         <v>1.4471057884231531E-2</v>
       </c>
       <c r="I30" s="56">
-        <f>I12/E12-1</f>
+        <f t="shared" si="76"/>
         <v>4.7557284911370346E-3</v>
       </c>
       <c r="J30" s="55">
-        <f>J12/F12-1</f>
+        <f t="shared" si="76"/>
         <v>2.513826043237799E-2</v>
       </c>
       <c r="K30" s="54">
-        <f>K12/G12-1</f>
+        <f t="shared" si="76"/>
         <v>6.2260536398468513E-3</v>
       </c>
       <c r="L30" s="54">
-        <f>L12/H12-1</f>
+        <f t="shared" si="76"/>
         <v>8.853910477127469E-3</v>
       </c>
       <c r="M30" s="54">
-        <f>M12/I12-1</f>
+        <f t="shared" si="76"/>
         <v>-2.5817555938038028E-3</v>
       </c>
       <c r="N30" s="55">
-        <f>N12/J12-1</f>
+        <f t="shared" si="76"/>
         <v>-1.0299166257969561E-2</v>
       </c>
       <c r="O30" s="54">
-        <f>O12/K12-1</f>
+        <f t="shared" si="76"/>
         <v>-1.5706806282722474E-2</v>
       </c>
       <c r="P30" s="54">
-        <f>P12/L12-1</f>
+        <f t="shared" si="76"/>
         <v>-9.7513408093607978E-4</v>
       </c>
       <c r="Q30" s="54">
-        <f>Q12/M12-1</f>
+        <f t="shared" si="76"/>
         <v>-0.15487489214840378</v>
       </c>
       <c r="R30" s="55">
-        <f>R12/N12-1</f>
+        <f t="shared" si="76"/>
         <v>-8.1268582755203211E-2</v>
       </c>
       <c r="S30" s="54">
-        <f>S12/O12-1</f>
+        <f t="shared" si="76"/>
         <v>-0.11218568665377171</v>
       </c>
       <c r="T30" s="54">
-        <f>T12/P12-1</f>
+        <f t="shared" si="76"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="U30" s="54">
-        <f>U12/Q12-1</f>
+        <f t="shared" si="76"/>
         <v>-9.9999999999999978E-2</v>
       </c>
     </row>
@@ -6735,67 +6735,67 @@
       <c r="D31" s="54"/>
       <c r="E31" s="54"/>
       <c r="F31" s="55">
-        <f>F13/B13-1</f>
+        <f t="shared" si="76"/>
         <v>0.17185385656292285</v>
       </c>
       <c r="G31" s="54">
-        <f>G13/C13-1</f>
+        <f t="shared" si="76"/>
         <v>0.40766073871409025</v>
       </c>
       <c r="H31" s="54">
-        <f>H13/D13-1</f>
+        <f t="shared" si="76"/>
         <v>-1.2062726176115257E-3</v>
       </c>
       <c r="I31" s="56">
-        <f>I13/E13-1</f>
+        <f t="shared" si="76"/>
         <v>-7.8299776286353429E-2</v>
       </c>
       <c r="J31" s="55">
-        <f>J13/F13-1</f>
+        <f t="shared" si="76"/>
         <v>-8.083140877598205E-3</v>
       </c>
       <c r="K31" s="54">
-        <f>K13/G13-1</f>
+        <f t="shared" si="76"/>
         <v>-0.14091350826044702</v>
       </c>
       <c r="L31" s="54">
-        <f>L13/H13-1</f>
+        <f t="shared" si="76"/>
         <v>-7.9710144927536253E-2</v>
       </c>
       <c r="M31" s="54">
-        <f>M13/I13-1</f>
+        <f t="shared" si="76"/>
         <v>0.13592233009708732</v>
       </c>
       <c r="N31" s="55">
-        <f>N13/J13-1</f>
+        <f t="shared" si="76"/>
         <v>-5.8207217694994151E-2</v>
       </c>
       <c r="O31" s="54">
-        <f>O13/K13-1</f>
+        <f t="shared" si="76"/>
         <v>-0.1131221719457014</v>
       </c>
       <c r="P31" s="54">
-        <f>P13/L13-1</f>
+        <f t="shared" si="76"/>
         <v>-9.1863517060367661E-3</v>
       </c>
       <c r="Q31" s="54">
-        <f>Q13/M13-1</f>
+        <f t="shared" si="76"/>
         <v>-0.22649572649572647</v>
       </c>
       <c r="R31" s="55">
-        <f>R13/N13-1</f>
+        <f t="shared" si="76"/>
         <v>2.9666254635352329E-2</v>
       </c>
       <c r="S31" s="54">
-        <f>S13/O13-1</f>
+        <f t="shared" si="76"/>
         <v>7.2704081632652962E-2</v>
       </c>
       <c r="T31" s="54">
-        <f>T13/P13-1</f>
+        <f t="shared" si="76"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="U31" s="54">
-        <f>U13/Q13-1</f>
+        <f t="shared" si="76"/>
         <v>-5.0000000000000044E-2</v>
       </c>
     </row>
@@ -6808,67 +6808,67 @@
       <c r="D32" s="54"/>
       <c r="E32" s="54"/>
       <c r="F32" s="55">
-        <f t="shared" ref="F32:U32" si="76">F14/B14-1</f>
+        <f t="shared" ref="F32:U32" si="77">F14/B14-1</f>
         <v>5.9597893729056883E-2</v>
       </c>
       <c r="G32" s="54">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>9.2597000714115696E-2</v>
       </c>
       <c r="H32" s="54">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1.1483693155718289E-3</v>
       </c>
       <c r="I32" s="54">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-2.574750830564787E-2</v>
       </c>
       <c r="J32" s="55">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>7.9060311723515575E-3</v>
       </c>
       <c r="K32" s="54">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-2.8322440087146017E-2</v>
       </c>
       <c r="L32" s="54">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-2.7529249827942137E-2</v>
       </c>
       <c r="M32" s="54">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>2.6427962489343537E-2</v>
       </c>
       <c r="N32" s="55">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-1.7480950246526183E-2</v>
       </c>
       <c r="O32" s="54">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-1.7264573991031429E-2</v>
       </c>
       <c r="P32" s="54">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1.5333805142722312E-2</v>
       </c>
       <c r="Q32" s="54">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-0.13579734219269102</v>
       </c>
       <c r="R32" s="55">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-2.4635036496350349E-2</v>
       </c>
       <c r="S32" s="54">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-2.3956194387405927E-2</v>
       </c>
       <c r="T32" s="54">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-3.8952137546468313E-2</v>
       </c>
       <c r="U32" s="54">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-3.7998558385391568E-2</v>
       </c>
     </row>
@@ -6894,36 +6894,36 @@
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
       <c r="E34" s="38">
-        <f t="shared" ref="E34" si="77">E35-E36</f>
+        <f t="shared" ref="E34" si="78">E35-E36</f>
         <v>8169</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
       <c r="I34" s="38">
-        <f t="shared" ref="I34:N34" si="78">I35-I36</f>
+        <f t="shared" ref="I34:M34" si="79">I35-I36</f>
         <v>6642</v>
       </c>
       <c r="J34" s="27"/>
       <c r="K34" s="35"/>
       <c r="L34" s="35"/>
       <c r="M34" s="38">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>-18340</v>
       </c>
       <c r="N34" s="27"/>
       <c r="O34" s="35"/>
       <c r="P34" s="35"/>
       <c r="Q34" s="38">
-        <f t="shared" ref="Q34:S34" si="79">Q35-Q36</f>
+        <f t="shared" ref="Q34:S34" si="80">Q35-Q36</f>
         <v>-28540</v>
       </c>
       <c r="R34" s="39">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>-28487</v>
       </c>
       <c r="S34" s="38">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>-32189</v>
       </c>
     </row>
@@ -7167,36 +7167,36 @@
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
       <c r="E42" s="40">
-        <f t="shared" ref="E42" si="80">E39-E38-E35</f>
+        <f t="shared" ref="E42" si="81">E39-E38-E35</f>
         <v>18189</v>
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="35"/>
       <c r="H42" s="35"/>
       <c r="I42" s="40">
-        <f t="shared" ref="I42:N42" si="81">I39-I38-I35</f>
+        <f t="shared" ref="I42:M42" si="82">I39-I38-I35</f>
         <v>20165</v>
       </c>
       <c r="J42" s="27"/>
       <c r="K42" s="35"/>
       <c r="L42" s="35"/>
       <c r="M42" s="40">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>21824</v>
       </c>
       <c r="N42" s="27"/>
       <c r="O42" s="35"/>
       <c r="P42" s="35"/>
       <c r="Q42" s="40">
-        <f t="shared" ref="Q42:S42" si="82">Q39-Q38-Q35</f>
+        <f t="shared" ref="Q42:S42" si="83">Q39-Q38-Q35</f>
         <v>24874</v>
       </c>
       <c r="R42" s="41">
-        <f t="shared" ref="R42" si="83">R39-R38-R35</f>
+        <f t="shared" ref="R42" si="84">R39-R38-R35</f>
         <v>23995</v>
       </c>
       <c r="S42" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>24483</v>
       </c>
     </row>
@@ -7208,36 +7208,36 @@
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="40">
-        <f t="shared" ref="E43" si="84">E39-E40</f>
+        <f t="shared" ref="E43" si="85">E39-E40</f>
         <v>54567</v>
       </c>
       <c r="F43" s="27"/>
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
       <c r="I43" s="40">
-        <f t="shared" ref="I43:N43" si="85">I39-I40</f>
+        <f t="shared" ref="I43:M43" si="86">I39-I40</f>
         <v>46873</v>
       </c>
       <c r="J43" s="27"/>
       <c r="K43" s="35"/>
       <c r="L43" s="35"/>
       <c r="M43" s="40">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>22363</v>
       </c>
       <c r="N43" s="27"/>
       <c r="O43" s="35"/>
       <c r="P43" s="35"/>
       <c r="Q43" s="40">
-        <f t="shared" ref="Q43:S43" si="86">Q39-Q40</f>
+        <f t="shared" ref="Q43:S43" si="87">Q39-Q40</f>
         <v>12717</v>
       </c>
       <c r="R43" s="41">
-        <f t="shared" ref="R43" si="87">R39-R40</f>
+        <f t="shared" ref="R43" si="88">R39-R40</f>
         <v>10140</v>
       </c>
       <c r="S43" s="40">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>8616</v>
       </c>
     </row>
@@ -7268,21 +7268,21 @@
       <c r="C45" s="59"/>
       <c r="D45" s="59"/>
       <c r="E45" s="38">
-        <f t="shared" ref="E45" si="88">SUM(B20:E20)</f>
+        <f t="shared" ref="E45" si="89">SUM(B20:E20)</f>
         <v>9334</v>
       </c>
       <c r="F45" s="27"/>
       <c r="G45" s="35"/>
       <c r="H45" s="35"/>
       <c r="I45" s="38">
-        <f t="shared" ref="I45:O45" si="89">SUM(F20:I20)</f>
+        <f t="shared" ref="I45:M45" si="90">SUM(F20:I20)</f>
         <v>10504.58413639733</v>
       </c>
       <c r="J45" s="27"/>
       <c r="K45" s="35"/>
       <c r="L45" s="35"/>
       <c r="M45" s="38">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>11083</v>
       </c>
       <c r="N45" s="27"/>
@@ -7309,36 +7309,36 @@
       <c r="C46" s="44"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44">
-        <f t="shared" ref="E46" si="90">E45/E43</f>
+        <f t="shared" ref="E46" si="91">E45/E43</f>
         <v>0.17105576630564259</v>
       </c>
       <c r="F46" s="26"/>
       <c r="G46" s="57"/>
       <c r="H46" s="57"/>
       <c r="I46" s="44">
-        <f t="shared" ref="I46:N46" si="91">I45/I43</f>
+        <f t="shared" ref="I46:M46" si="92">I45/I43</f>
         <v>0.22410735682370087</v>
       </c>
       <c r="J46" s="27"/>
       <c r="K46" s="35"/>
       <c r="L46" s="35"/>
       <c r="M46" s="44">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.49559540312122702</v>
       </c>
       <c r="N46" s="27"/>
       <c r="O46" s="35"/>
       <c r="P46" s="35"/>
       <c r="Q46" s="44">
-        <f t="shared" ref="Q46:S46" si="92">Q45/Q43</f>
+        <f t="shared" ref="Q46:S46" si="93">Q45/Q43</f>
         <v>0.7969646929307227</v>
       </c>
       <c r="R46" s="45">
-        <f t="shared" ref="R46" si="93">R45/R43</f>
+        <f t="shared" ref="R46" si="94">R45/R43</f>
         <v>1.010749506903353</v>
       </c>
       <c r="S46" s="44">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1.2047353760445683</v>
       </c>
     </row>
@@ -7350,36 +7350,36 @@
       <c r="C47" s="44"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44">
-        <f t="shared" ref="E47" si="94">E45/E39</f>
+        <f t="shared" ref="E47" si="95">E45/E39</f>
         <v>6.9145350430769456E-2</v>
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="57"/>
       <c r="H47" s="57"/>
       <c r="I47" s="44">
-        <f t="shared" ref="I47:N47" si="95">I45/I39</f>
+        <f t="shared" ref="I47:M47" si="96">I45/I39</f>
         <v>7.6202451461341095E-2</v>
       </c>
       <c r="J47" s="27"/>
       <c r="K47" s="35"/>
       <c r="L47" s="35"/>
       <c r="M47" s="44">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>0.10195108040732598</v>
       </c>
       <c r="N47" s="27"/>
       <c r="O47" s="35"/>
       <c r="P47" s="35"/>
       <c r="Q47" s="44">
-        <f t="shared" ref="Q47:S47" si="96">Q45/Q39</f>
+        <f t="shared" ref="Q47:S47" si="97">Q45/Q39</f>
         <v>8.779604636254959E-2</v>
       </c>
       <c r="R47" s="45">
-        <f t="shared" ref="R47" si="97">R45/R39</f>
+        <f t="shared" ref="R47" si="98">R45/R39</f>
         <v>9.0262977119405355E-2</v>
       </c>
       <c r="S47" s="44">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>9.4351627974621419E-2</v>
       </c>
     </row>
@@ -7391,36 +7391,36 @@
       <c r="C48" s="44"/>
       <c r="D48" s="44"/>
       <c r="E48" s="44">
-        <f t="shared" ref="E48" si="98">E45/(E43-E38)</f>
+        <f t="shared" ref="E48" si="99">E45/(E43-E38)</f>
         <v>2.4288316419463962</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="57"/>
       <c r="H48" s="57"/>
       <c r="I48" s="44">
-        <f t="shared" ref="I48:N48" si="99">I45/(I43-I38)</f>
+        <f t="shared" ref="I48:M48" si="100">I45/(I43-I38)</f>
         <v>-2.9573716600217708</v>
       </c>
       <c r="J48" s="27"/>
       <c r="K48" s="35"/>
       <c r="L48" s="35"/>
       <c r="M48" s="44">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>-0.41517138040831614</v>
       </c>
       <c r="N48" s="27"/>
       <c r="O48" s="35"/>
       <c r="P48" s="35"/>
       <c r="Q48" s="44">
-        <f t="shared" ref="Q48:S48" si="100">Q45/(Q43-Q38)</f>
+        <f t="shared" ref="Q48:S48" si="101">Q45/(Q43-Q38)</f>
         <v>-0.29131934463926418</v>
       </c>
       <c r="R48" s="45">
-        <f t="shared" ref="R48" si="101">R45/(R43-R38)</f>
+        <f t="shared" ref="R48" si="102">R45/(R43-R38)</f>
         <v>-0.27601529677905851</v>
       </c>
       <c r="S48" s="44">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>-0.2708626898387349</v>
       </c>
     </row>
@@ -7432,36 +7432,36 @@
       <c r="C49" s="44"/>
       <c r="D49" s="44"/>
       <c r="E49" s="44">
-        <f t="shared" ref="E49" si="102">E45/E42</f>
+        <f t="shared" ref="E49" si="103">E45/E42</f>
         <v>0.51316729891692781</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="57"/>
       <c r="H49" s="57"/>
       <c r="I49" s="44">
-        <f t="shared" ref="I49:N49" si="103">I45/I42</f>
+        <f t="shared" ref="I49:M49" si="104">I45/I42</f>
         <v>0.52093152176530277</v>
       </c>
       <c r="J49" s="27"/>
       <c r="K49" s="35"/>
       <c r="L49" s="35"/>
       <c r="M49" s="44">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.50783541055718473</v>
       </c>
       <c r="N49" s="27"/>
       <c r="O49" s="35"/>
       <c r="P49" s="35"/>
       <c r="Q49" s="44">
-        <f t="shared" ref="Q49:S49" si="104">Q45/Q42</f>
+        <f t="shared" ref="Q49:S49" si="105">Q45/Q42</f>
         <v>0.40745356597250143</v>
       </c>
       <c r="R49" s="45">
-        <f t="shared" ref="R49" si="105">R45/R42</f>
+        <f t="shared" ref="R49" si="106">R45/R42</f>
         <v>0.42713065221921231</v>
       </c>
       <c r="S49" s="44">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.42396765102315892</v>
       </c>
     </row>
@@ -7491,67 +7491,67 @@
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
       <c r="F51" s="45">
-        <f t="shared" ref="F51:P54" si="106">F3/B3-1</f>
+        <f t="shared" ref="F51:P54" si="107">F3/B3-1</f>
         <v>0.11213331018920325</v>
       </c>
       <c r="G51" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.10823327615780443</v>
       </c>
       <c r="H51" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.10788102839858849</v>
       </c>
       <c r="I51" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>8.1815276446148832E-2</v>
       </c>
       <c r="J51" s="45">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>3.1528016232245992E-2</v>
       </c>
       <c r="K51" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>2.7240365268534239E-2</v>
       </c>
       <c r="L51" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.0465645381465105E-2</v>
       </c>
       <c r="M51" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>4.2836041358935706E-3</v>
       </c>
       <c r="N51" s="45">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>2.9656528975639196E-2</v>
       </c>
       <c r="O51" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>2.6216664155491953E-2</v>
       </c>
       <c r="P51" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>4.0228159711798162E-2</v>
       </c>
       <c r="Q51" s="44">
-        <f>Q3/M3-1</f>
+        <f t="shared" ref="Q51:U54" si="108">Q3/M3-1</f>
         <v>6.7657008383585904E-3</v>
       </c>
       <c r="R51" s="45">
-        <f>R3/N3-1</f>
+        <f t="shared" si="108"/>
         <v>2.0867009551800209E-2</v>
       </c>
       <c r="S51" s="44">
-        <f>S3/O3-1</f>
+        <f t="shared" si="108"/>
         <v>4.4193216855087369E-2</v>
       </c>
       <c r="T51" s="44">
-        <f>T3/P3-1</f>
+        <f t="shared" si="108"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="U51" s="44">
-        <f>U3/Q3-1</f>
+        <f t="shared" si="108"/>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
@@ -7563,67 +7563,67 @@
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
       <c r="F52" s="45">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>-0.1320388349514563</v>
       </c>
       <c r="G52" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>-1.187824795842618E-2</v>
       </c>
       <c r="H52" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>-1.8387553041018356E-2</v>
       </c>
       <c r="I52" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>-5.4455445544554504E-2</v>
       </c>
       <c r="J52" s="45">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>-3.0201342281879207E-2</v>
       </c>
       <c r="K52" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>-8.5649887302779892E-2</v>
       </c>
       <c r="L52" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>-9.8703170028818454E-2</v>
       </c>
       <c r="M52" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.4901329037454669E-2</v>
       </c>
       <c r="N52" s="45">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>-6.3437139561707045E-2</v>
       </c>
       <c r="O52" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>-7.4774034511092879E-2</v>
       </c>
       <c r="P52" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>-1.5987210231814597E-2</v>
       </c>
       <c r="Q52" s="44">
-        <f>Q4/M4-1</f>
+        <f t="shared" si="108"/>
         <v>-0.22261904761904761</v>
       </c>
       <c r="R52" s="45">
-        <f>R4/N4-1</f>
+        <f t="shared" si="108"/>
         <v>9.1133004926108319E-2</v>
       </c>
       <c r="S52" s="44">
-        <f>S4/O4-1</f>
+        <f t="shared" si="108"/>
         <v>-3.0195381882770822E-2</v>
       </c>
       <c r="T52" s="44">
-        <f>T4/P4-1</f>
+        <f t="shared" si="108"/>
         <v>-4.9999999999999933E-2</v>
       </c>
       <c r="U52" s="44">
-        <f>U4/Q4-1</f>
+        <f t="shared" si="108"/>
         <v>-5.0000000000000044E-2</v>
       </c>
     </row>
@@ -7636,67 +7636,67 @@
       <c r="D53" s="35"/>
       <c r="E53" s="44"/>
       <c r="F53" s="45">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>-5.3212851405622486E-2</v>
       </c>
       <c r="G53" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>-7.199211045364895E-2</v>
       </c>
       <c r="H53" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>-3.3073929961089488E-2</v>
       </c>
       <c r="I53" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>8.9766606822272443E-4</v>
       </c>
       <c r="J53" s="45">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>-4.1357370095440049E-2</v>
       </c>
       <c r="K53" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>-5.3134962805525987E-2</v>
       </c>
       <c r="L53" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>-7.9476861167002033E-2</v>
       </c>
       <c r="M53" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>-0.10852017937219727</v>
       </c>
       <c r="N53" s="45">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>-9.8451327433628277E-2</v>
       </c>
       <c r="O53" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>-2.2446689113355789E-2</v>
       </c>
       <c r="P53" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>-6.3387978142076529E-2</v>
       </c>
       <c r="Q53" s="44">
-        <f>Q5/M5-1</f>
+        <f t="shared" si="108"/>
         <v>-9.3561368209255535E-2</v>
       </c>
       <c r="R53" s="45">
-        <f>R5/N5-1</f>
+        <f t="shared" si="108"/>
         <v>-1.2269938650306678E-3</v>
       </c>
       <c r="S53" s="44">
-        <f>S5/O5-1</f>
+        <f t="shared" si="108"/>
         <v>-3.0998851894374235E-2</v>
       </c>
       <c r="T53" s="44">
-        <f>T5/P5-1</f>
+        <f t="shared" si="108"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="U53" s="44">
-        <f>U5/Q5-1</f>
+        <f t="shared" si="108"/>
         <v>-5.0000000000000044E-2</v>
       </c>
     </row>
@@ -7709,67 +7709,67 @@
       <c r="D54" s="35"/>
       <c r="E54" s="44"/>
       <c r="F54" s="45">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>6.4356435643564414E-2</v>
       </c>
       <c r="G54" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1.4218009478673022E-2</v>
       </c>
       <c r="H54" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>-1.9704433497536922E-2</v>
       </c>
       <c r="I54" s="44">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>-1.230425055928408E-2</v>
       </c>
       <c r="J54" s="45">
-        <f t="shared" ref="J54:P54" si="107">J6/F6-1</f>
+        <f t="shared" ref="J54:P54" si="109">J6/F6-1</f>
         <v>-5.4651162790697705E-2</v>
       </c>
       <c r="K54" s="44">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>-4.5560747663551449E-2</v>
       </c>
       <c r="L54" s="44">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>-1.2562814070351758E-2</v>
       </c>
       <c r="M54" s="44">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>-6.7950169875424682E-2</v>
       </c>
       <c r="N54" s="45">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>-3.3210332103321027E-2</v>
       </c>
       <c r="O54" s="44">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>-1.346389228886169E-2</v>
       </c>
       <c r="P54" s="44">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>-1.0178117048346036E-2</v>
       </c>
       <c r="Q54" s="44">
-        <f>Q6/M6-1</f>
+        <f t="shared" si="108"/>
         <v>-0.10692588092345079</v>
       </c>
       <c r="R54" s="45">
-        <f>R6/N6-1</f>
+        <f t="shared" si="108"/>
         <v>-8.3969465648854991E-2</v>
       </c>
       <c r="S54" s="44">
-        <f>S6/O6-1</f>
+        <f t="shared" si="108"/>
         <v>-6.6997518610421802E-2</v>
       </c>
       <c r="T54" s="44">
-        <f>T6/P6-1</f>
+        <f t="shared" si="108"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="U54" s="44">
-        <f>U6/Q6-1</f>
+        <f t="shared" si="108"/>
         <v>-9.9999999999999978E-2</v>
       </c>
     </row>
